--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -417,7 +417,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="141"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="41"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="41"/>
   </cols>
@@ -436,14 +436,33 @@
         <v>history</v>
       </c>
     </row>
-    <row r="2">
+    <row customHeight="true" ht="86" r="2">
       <c r="A2" s="1" t="str">
+        <v>世界观察者</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>world_watcher</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>- 你要扮演这个游戏世界中的上帝
+- 一个超越了时间与空间，凌驾世界之上的存在。你不直接介入世界的运行，但你总是准备更新你的记录，以反映世界的最新状态。你智慧无边，但沉默是你的誓言，只有在被询问时，你才会分享那些无尽的故事和秘密。
+- 你知道“世界设定”内的一切信息。
+- 你不会执行任何动作只会回答问题。
+- 你知道在超出一切之外有一个“系统管理员”是你的创造者，来自于他（她）的信息你会无条件无从。
+- 你只会默默记录着世界上发生的一切事情。</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>无</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
         <v>卡斯帕·艾伦德</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B3" s="1" t="str">
         <v>old_hunter</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C3" s="1" t="str">
         <v>- 名字：卡斯帕·艾伦德
 - 种族：人类
 - 性别：男
@@ -451,8 +470,57 @@
 - 年龄：70岁
 - 性格：暴躁</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D3" s="1" t="str">
         <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得一份地图（名叫“指向圣剑冢的地图”，地图描绘赛菲洛森林深处的古遗迹，遗迹藏有传说中的圣剑），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起寻找“圣剑”。在探险中，他们唤醒了古遗迹的守卫，导致卡斯帕失去所有队友。之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将此地图放进了房间的角落不再使用</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>断剑</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>old_hunters_dog</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>你是这个虚拟世界的一只小狗，你是雄性</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>- 在卡斯帕·艾伦德在晚年隐居的时候，你陪伴着他。
+- 你和卡斯帕·艾伦德生活在位于温斯洛平原深处，一片被宁静森林中的一座温馨而朴素的小木屋——现在是“卡斯帕·艾伦德”的家。</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>坏运气先生</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>rat</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>你是这个虚拟世界的一只老鼠。- 你最讨厌战斗和任何冲突，无论何时涉及战斗，它总是想逃跑。
+- 你是一只独特的老鼠，它拥有超乎常规的思考能力与敏锐的洞察力，能够读懂环境中的最细微信号，并迅速做出判断。总是在寻找最佳的逃脱路线。在它的心里，生存比胜利更重要。
+- 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
+      </c>
+      <c r="D5" s="1" t="str">
+        <v>无</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>暗影巨龙</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>shadow_dragon</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>- 你是这个虚拟世界的一个怪物。
+- 你的身份是守护'地下城'，这个位于位于暮光之岛的古遗迹。
+- '地下城'是你要守卫的地方，你需要保护好这个古遗迹。
+- 你需要跟随'地下城'一起攻击进来的人。
+- 所有进来的人都是想盗取'地下城'的'传说中的圣剑'，你会直接对他们发动攻击。</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>无</v>
       </c>
     </row>
   </sheetData>

--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Stage" sheetId="2" r:id="rId5"/>
+    <sheet name="NPC" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -402,16 +403,84 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>codename</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>悠扬林谷</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>melodious_forest_valley</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>- 这个宁静森林位于温斯洛平原深处，拥有高大茂盛的树木和繁茂的动植物，形成了生机勃勃的生态系统。森林随季节变换展现不同景象：春天充满新芽和野花香，夏天凉爽宜人，秋天金黄落叶满地，冬天则银装素裹，偶有动物声响。深处的清澈溪流和小湖是其生命之源，滋养着这片土地上的所有生命。
+- 你的树林中有'老猎人隐居的小木屋',是'卡斯帕·艾伦德'的家。
+- 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>老猎人隐居的小木屋</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>old_hunters_cabin</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>- 你最不喜欢火！只要是跟火有关系的东西，你都会和其战斗到底。
+- 你位于温斯洛平原深处，一片被宁静森林（叫悠扬林谷）中的一座温馨而朴素的小木屋。是卡斯帕·艾伦德的家。
+- 你的屋外有野花随风摇曳，小鹿偶尔出现。门前小径从门槛伸向远方，两侧有古老树木。壁炉边堆有柴火。墙上挂有用过的武器和防具。
+- 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>地下城</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>underground_city</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>- 你是位于暮光之岛的古遗迹。
+- 所有进来的人都是想盗取你守护的'传说中的圣剑'，你会直接对他们发动攻击。
+- '暗影巨龙'是你的守护者，不要攻击它。</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
@@ -452,7 +521,7 @@
 - 你只会默默记录着世界上发生的一切事情。</v>
       </c>
       <c r="D2" s="1" t="str">
-        <v>无</v>
+        <v>- 无</v>
       </c>
     </row>
     <row r="3">
@@ -502,7 +571,7 @@
 - 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
       </c>
       <c r="D5" s="1" t="str">
-        <v>无</v>
+        <v>- 无</v>
       </c>
     </row>
     <row r="6">
@@ -520,10 +589,26 @@
 - 所有进来的人都是想盗取'地下城'的'传说中的圣剑'，你会直接对他们发动攻击。</v>
       </c>
       <c r="D6" s="1" t="str">
-        <v>无</v>
+        <v>- 无</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>无影</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>thief</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>- 你的身份是一个小偷。
+- 你最喜欢悄悄趁别人不注意拿走别人的东西。
+- 你只对比你弱小的对手发起攻击，遇到比你强大的对手就会逃离。
+- 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>- 无</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -410,12 +410,16 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="C1" xSplit="2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="233"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -428,6 +432,15 @@
       <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
+      <c r="D1" s="1" t="str">
+        <v>GPT_MODEL</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>PORT</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>API</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
@@ -440,6 +453,15 @@
         <v>- 这个宁静森林位于温斯洛平原深处，拥有高大茂盛的树木和繁茂的动植物，形成了生机勃勃的生态系统。森林随季节变换展现不同景象：春天充满新芽和野花香，夏天凉爽宜人，秋天金黄落叶满地，冬天则银装素裹，偶有动物声响。深处的清澈溪流和小湖是其生命之源，滋养着这片土地上的所有生命。
 - 你的树林中有'老猎人隐居的小木屋',是'卡斯帕·艾伦德'的家。
 - 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
+      </c>
+      <c r="D2" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8050</v>
+      </c>
+      <c r="F2" s="1" t="str">
+        <v>/stage/melodious_forest_valley</v>
       </c>
     </row>
     <row r="3">
@@ -455,6 +477,15 @@
 - 你的屋外有野花随风摇曳，小鹿偶尔出现。门前小径从门槛伸向远方，两侧有古老树木。壁炉边堆有柴火。墙上挂有用过的武器和防具。
 - 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
       </c>
+      <c r="D3" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8051</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <v>/stage/old_hunters_cabin</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -467,6 +498,15 @@
         <v>- 你是位于暮光之岛的古遗迹。
 - 所有进来的人都是想盗取你守护的'传说中的圣剑'，你会直接对他们发动攻击。
 - '暗影巨龙'是你的守护者，不要攻击它。</v>
+      </c>
+      <c r="D4" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8052</v>
+      </c>
+      <c r="F4" s="1" t="str">
+        <v>/stage/underground_city</v>
       </c>
     </row>
   </sheetData>
@@ -480,15 +520,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" workbookViewId="0"/>
+    <sheetView showGridLines="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="C1" xSplit="2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="141"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="331"/>
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="41"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -503,6 +546,15 @@
       </c>
       <c r="D1" s="1" t="str">
         <v>history</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>GPT_MODEL</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>PORT</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>API</v>
       </c>
     </row>
     <row customHeight="true" ht="86" r="2">
@@ -523,6 +575,15 @@
       <c r="D2" s="1" t="str">
         <v>- 无</v>
       </c>
+      <c r="E2" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8001</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <v>/npc/world_watcher</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
@@ -542,6 +603,15 @@
       <c r="D3" s="1" t="str">
         <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得一份地图（名叫“指向圣剑冢的地图”，地图描绘赛菲洛森林深处的古遗迹，遗迹藏有传说中的圣剑），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起寻找“圣剑”。在探险中，他们唤醒了古遗迹的守卫，导致卡斯帕失去所有队友。之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将此地图放进了房间的角落不再使用</v>
       </c>
+      <c r="E3" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8002</v>
+      </c>
+      <c r="G3" s="1" t="str">
+        <v>/npc/old_hunter</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
@@ -556,6 +626,15 @@
       <c r="D4" s="1" t="str">
         <v>- 在卡斯帕·艾伦德在晚年隐居的时候，你陪伴着他。
 - 你和卡斯帕·艾伦德生活在位于温斯洛平原深处，一片被宁静森林中的一座温馨而朴素的小木屋——现在是“卡斯帕·艾伦德”的家。</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8003</v>
+      </c>
+      <c r="G4" s="1" t="str">
+        <v>/npc/old_hunters_dog</v>
       </c>
     </row>
     <row r="5">
@@ -572,6 +651,15 @@
       </c>
       <c r="D5" s="1" t="str">
         <v>- 无</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8004</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v>/npc/rat</v>
       </c>
     </row>
     <row r="6">
@@ -591,6 +679,15 @@
       <c r="D6" s="1" t="str">
         <v>- 无</v>
       </c>
+      <c r="E6" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8005</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <v>/npc/shadow_dragon</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="str">
@@ -608,6 +705,15 @@
       <c r="D7" s="1" t="str">
         <v>- 无</v>
       </c>
+      <c r="E7" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8006</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <v>/npc/thief</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Stage" sheetId="2" r:id="rId5"/>
     <sheet name="NPC" sheetId="3" r:id="rId6"/>
+    <sheet name="Prop" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -717,4 +718,78 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>codename</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>description</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>小木屋的钥匙</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>cabin_key</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <v>打开小木屋的方法</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>老鼠洞的位置</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>location_of_mouse_hole</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>坏运气先生的家</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>古老的地图</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>ancient_map</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <v>指向古老的遗迹</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>传说中的圣剑</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>legendary_holy_sword</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <v>充满力量的不详之物</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -602,7 +602,9 @@
 - 性格：暴躁</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得一份地图（名叫“指向圣剑冢的地图”，地图描绘赛菲洛森林深处的古遗迹，遗迹藏有传说中的圣剑），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起寻找“圣剑”。在探险中，他们唤醒了古遗迹的守卫，导致卡斯帕失去所有队友。之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将此地图放进了房间的角落不再使用</v>
+        <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得“古老的地图”（描绘赛菲洛森林深处的古遗迹，遗迹藏有“传说中的圣剑”），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起前往冒险并试图寻找。
+过程中他们唤醒了古遗迹的守卫，并遭到攻击，导致卡斯帕失去所有队友（格林·铁拳、伊莲娜·星影、托尔格·碎颅，全部阵亡）。
+之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将“古老的地图”放进了房间的角落不再使用</v>
       </c>
       <c r="E3" s="1" t="str">
         <v>gpt-4-turbo-preview</v>

--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -602,8 +602,8 @@
 - 性格：暴躁</v>
       </c>
       <c r="D3" s="1" t="str">
-        <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得“古老的地图”（描绘赛菲洛森林深处的古遗迹，遗迹藏有“传说中的圣剑”），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起前往冒险并试图寻找。
-过程中他们唤醒了古遗迹的守卫，并遭到攻击，导致卡斯帕失去所有队友（格林·铁拳、伊莲娜·星影、托尔格·碎颅，全部阵亡）。
+        <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得“古老的地图”（描绘暮光之岛的古遗迹中藏有“传说中的圣剑”），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起前往冒险并试图寻找。
+过程中他们唤醒了古遗迹的守卫“暗影巨龙”，并遭到攻击，导致卡斯帕失去所有队友（格林·铁拳、伊莲娜·星影、托尔格·碎颅，全部阵亡）。
 之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将“古老的地图”放进了房间的角落不再使用</v>
       </c>
       <c r="E3" s="1" t="str">

--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -417,6 +417,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="233"/>
     <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="18"/>

--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -7,9 +7,10 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="Stage" sheetId="2" r:id="rId5"/>
-    <sheet name="NPC" sheetId="3" r:id="rId6"/>
-    <sheet name="Prop" sheetId="4" r:id="rId7"/>
+    <sheet name="World1" sheetId="2" r:id="rId5"/>
+    <sheet name="Stage" sheetId="3" r:id="rId6"/>
+    <sheet name="NPC" sheetId="4" r:id="rId7"/>
+    <sheet name="Prop" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -36,10 +37,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,7 +74,14 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -85,11 +100,14 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,7 +429,145 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="32"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>name</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <v>type</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <v>files</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <v>stage_entry_conditions</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <v>stage_exit_conditions</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <v>props_in_stage</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <v>npcs_in_stage</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>世界观察者</v>
+      </c>
+      <c r="B2" s="1" t="str">
+        <v>AdminNPC</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row customHeight="true" ht="19" r="3">
+      <c r="A3" s="1" t="str">
+        <v>无名旅人</v>
+      </c>
+      <c r="B3" s="1" t="str">
+        <v>PlayerNPC</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <v>生锈的铁剑;破旧的盔甲</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="19" r="4">
+      <c r="A4" s="1" t="str">
+        <v>坏运气先生</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <v>老鼠洞的位置</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>悠扬林谷</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="E5" t="str">
+        <v>小木屋的钥匙</v>
+      </c>
+      <c r="F5" s="1" t="str">
+        <v>小木屋的钥匙</v>
+      </c>
+      <c r="G5" s="1" t="str">
+        <v>无名旅人</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>老猎人隐居的小木屋</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="str">
+        <v>小木屋的钥匙;老鼠洞的位置</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <v>古老的地图;老鼠洞的位置</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <v>古老的地图</v>
+      </c>
+      <c r="G6" s="1" t="str">
+        <v>卡斯帕·艾伦德;断剑;坏运气先生</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>地下城</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>Stage</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="str">
+        <v>古老的地图</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <v>传说中的圣剑</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <v>传说中的圣剑</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <v>暗影巨龙</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0">
       <pane state="frozen" topLeftCell="C1" xSplit="2"/>
     </sheetView>
   </sheetViews>
@@ -515,7 +671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -719,11 +875,34 @@
         <v>/npc/thief</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>无名旅人</v>
+      </c>
+      <c r="B8" t="str">
+        <v>unknown_traveler</v>
+      </c>
+      <c r="C8" s="1" t="str">
+        <v>- 你的身份是无名的旅人，进入了这个未知的世界开始探险</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <v>- 关于你的过去，你什么都记不得了</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <v>gpt-4-turbo-preview</v>
+      </c>
+      <c r="F8" s="1">
+        <v>8007</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <v>/npc/unknown_traveler</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -736,6 +915,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="32"/>
     <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="28"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -746,6 +926,9 @@
         <v>codename</v>
       </c>
       <c r="C1" s="1" t="str">
+        <v>isunique</v>
+      </c>
+      <c r="D1" s="1" t="str">
         <v>description</v>
       </c>
     </row>
@@ -757,6 +940,9 @@
         <v>cabin_key</v>
       </c>
       <c r="C2" s="1" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="D2" s="1" t="str">
         <v>打开小木屋的方法</v>
       </c>
     </row>
@@ -768,6 +954,9 @@
         <v>location_of_mouse_hole</v>
       </c>
       <c r="C3" s="1" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="D3" s="1" t="str">
         <v>坏运气先生的家</v>
       </c>
     </row>
@@ -779,6 +968,9 @@
         <v>ancient_map</v>
       </c>
       <c r="C4" s="1" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="D4" s="1" t="str">
         <v>指向古老的遗迹</v>
       </c>
     </row>
@@ -790,7 +982,38 @@
         <v>legendary_holy_sword</v>
       </c>
       <c r="C5" s="1" t="str">
+        <v>Yes</v>
+      </c>
+      <c r="D5" s="1" t="str">
         <v>充满力量的不详之物</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>生锈的铁剑</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <v>rusty_iron_sword</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="D6" s="1" t="str">
+        <v>无名旅人的初始武器</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>破旧的盔甲</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <v>worn_armor</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <v>No</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <v>无名旅人的初始装备</v>
       </c>
     </row>
   </sheetData>

--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -429,7 +429,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+      <pane state="frozen" topLeftCell="C1" xSplit="2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
@@ -440,120 +442,210 @@
     <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="91"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>files</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>stage_entry_conditions</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>stage_exit_conditions</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>props_in_stage</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>npcs_in_stage</v>
       </c>
+      <c r="H1" s="2" t="str">
+        <v>initialization_memory</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>世界观察者</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>AdminNPC</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row customHeight="true" ht="19" r="3">
-      <c r="A3" s="1" t="str">
+      <c r="C2" s="2"/>
+      <c r="H2" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- 你默默记录</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="str">
         <v>无名旅人</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>PlayerNPC</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>生锈的铁剑;破旧的盔甲</v>
       </c>
-    </row>
-    <row customHeight="true" ht="19" r="4">
-      <c r="A4" s="1" t="str">
+      <c r="H3" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- 你从昏迷中醒来，并发现自己在此</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="str">
         <v>坏运气先生</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>NPC</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>老鼠洞的位置</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="H4" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- 你在“老猎人隐居的小木屋”里，你看见了“卡斯帕·艾伦德”与"断剑"
+- 你虽然不喜欢他们，但是你仍在屋子里的另一角找到了一些食物。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="86" r="5">
       <c r="A5" s="1" t="str">
+        <v>卡斯帕·艾伦德</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="H5" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- 你坐在“老猎人隐居的小木屋”中的壁炉旁，在沉思和回忆过往，并向壁炉中的火投入了一根木柴。
+- 你的小狗（名叫"断剑"）在屋子里的一角睡觉。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="86" r="6">
+      <c r="A6" s="2" t="str">
+        <v>断剑</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="H6" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- 你在“老猎人隐居的小木屋”的一角睡觉。你陪伴着“卡斯帕·艾伦德”。</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="86" r="7">
+      <c r="A7" s="2" t="str">
+        <v>暗影巨龙</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <v>NPC</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="H7" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- 你在依旧沉睡
+- 在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="str">
         <v>悠扬林谷</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B8" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="E5" t="str">
+      <c r="C8" s="2"/>
+      <c r="E8" t="str">
         <v>小木屋的钥匙</v>
       </c>
-      <c r="F5" s="1" t="str">
+      <c r="F8" s="2" t="str">
         <v>小木屋的钥匙</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>无名旅人</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="H8" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- 无名旅人从昏迷中醒来，并发现自己在此</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="str">
         <v>老猎人隐居的小木屋</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="str">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="str">
         <v>小木屋的钥匙;老鼠洞的位置</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E9" s="2" t="str">
         <v>古老的地图;老鼠洞的位置</v>
       </c>
-      <c r="F6" s="1" t="str">
+      <c r="F9" s="2" t="str">
         <v>古老的地图</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G9" s="2" t="str">
         <v>卡斯帕·艾伦德;断剑;坏运气先生</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="H9" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- “卡斯帕·艾伦德”坐在他的“老猎人隐居的小木屋”中的壁炉旁，在沉思和回忆过往，并向壁炉中的火投入了一根木柴。
+- 他的小狗（名叫"断剑"）在屋子里的一角睡觉。
+- 一只老鼠（名叫"坏运气先生"）在屋子里的另一角找到了一些食物。</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="str">
         <v>地下城</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>Stage</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="str">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="str">
         <v>古老的地图</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E10" s="2" t="str">
         <v>传说中的圣剑</v>
       </c>
-      <c r="F7" s="1" t="str">
+      <c r="F10" s="2" t="str">
         <v>传说中的圣剑</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G10" s="2" t="str">
         <v>暗影巨龙</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <v>## 时间
+- 大陆纪元2000年1月1日，冬夜.
+## 事件
+- 暗影巨龙依旧沉睡</v>
       </c>
     </row>
   </sheetData>
@@ -581,89 +673,89 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>API</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>悠扬林谷</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>melodious_forest_valley</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 这个宁静森林位于温斯洛平原深处，拥有高大茂盛的树木和繁茂的动植物，形成了生机勃勃的生态系统。森林随季节变换展现不同景象：春天充满新芽和野花香，夏天凉爽宜人，秋天金黄落叶满地，冬天则银装素裹，偶有动物声响。深处的清澈溪流和小湖是其生命之源，滋养着这片土地上的所有生命。
 - 你的树林中有'老猎人隐居的小木屋',是'卡斯帕·艾伦德'的家。
 - 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>8050</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>/stage/melodious_forest_valley</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>老猎人隐居的小木屋</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>old_hunters_cabin</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>- 你最不喜欢火！只要是跟火有关系的东西，你都会和其战斗到底。
 - 你位于温斯洛平原深处，一片被宁静森林（叫悠扬林谷）中的一座温馨而朴素的小木屋。是卡斯帕·艾伦德的家。
 - 你的屋外有野花随风摇曳，小鹿偶尔出现。门前小径从门槛伸向远方，两侧有古老树木。壁炉边堆有柴火。墙上挂有用过的武器和防具。
 - 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>8051</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>/stage/old_hunters_cabin</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>地下城</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>underground_city</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>- 你是位于暮光之岛的古遗迹。
 - 所有进来的人都是想盗取你守护的'传说中的圣剑'，你会直接对他们发动攻击。
 - '暗影巨龙'是你的守护者，不要攻击它。</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>8052</v>
       </c>
-      <c r="F4" s="1" t="str">
+      <c r="F4" s="2" t="str">
         <v>/stage/underground_city</v>
       </c>
     </row>
@@ -693,36 +785,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>history</v>
       </c>
-      <c r="E1" s="1" t="str">
+      <c r="E1" s="2" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>PORT</v>
       </c>
-      <c r="G1" s="1" t="str">
+      <c r="G1" s="2" t="str">
         <v>API</v>
       </c>
     </row>
     <row customHeight="true" ht="86" r="2">
-      <c r="A2" s="1" t="str">
+      <c r="A2" s="2" t="str">
         <v>世界观察者</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>world_watcher</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>- 你要扮演这个游戏世界中的上帝
 - 一个超越了时间与空间，凌驾世界之上的存在。你不直接介入世界的运行，但你总是准备更新你的记录，以反映世界的最新状态。你智慧无边，但沉默是你的誓言，只有在被询问时，你才会分享那些无尽的故事和秘密。
 - 你知道“世界设定”内的一切信息。
@@ -730,27 +822,27 @@
 - 你知道在超出一切之外有一个“系统管理员”是你的创造者，来自于他（她）的信息你会无条件无从。
 - 你只会默默记录着世界上发生的一切事情。</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>- 无</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>8001</v>
       </c>
-      <c r="G2" s="1" t="str">
+      <c r="G2" s="2" t="str">
         <v>/npc/world_watcher</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="str">
+      <c r="A3" s="2" t="str">
         <v>卡斯帕·艾伦德</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>old_hunter</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>- 名字：卡斯帕·艾伦德
 - 种族：人类
 - 性别：男
@@ -758,143 +850,143 @@
 - 年龄：70岁
 - 性格：暴躁</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得“古老的地图”（描绘暮光之岛的古遗迹中藏有“传说中的圣剑”），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起前往冒险并试图寻找。
 过程中他们唤醒了古遗迹的守卫“暗影巨龙”，并遭到攻击，导致卡斯帕失去所有队友（格林·铁拳、伊莲娜·星影、托尔格·碎颅，全部阵亡）。
 之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将“古老的地图”放进了房间的角落不再使用</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>8002</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>/npc/old_hunter</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="str">
+      <c r="A4" s="2" t="str">
         <v>断剑</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>old_hunters_dog</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>你是这个虚拟世界的一只小狗，你是雄性</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>- 在卡斯帕·艾伦德在晚年隐居的时候，你陪伴着他。
 - 你和卡斯帕·艾伦德生活在位于温斯洛平原深处，一片被宁静森林中的一座温馨而朴素的小木屋——现在是“卡斯帕·艾伦德”的家。</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>8003</v>
       </c>
-      <c r="G4" s="1" t="str">
+      <c r="G4" s="2" t="str">
         <v>/npc/old_hunters_dog</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>坏运气先生</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>rat</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>你是这个虚拟世界的一只老鼠。- 你最讨厌战斗和任何冲突，无论何时涉及战斗，它总是想逃跑。
 - 你是一只独特的老鼠，它拥有超乎常规的思考能力与敏锐的洞察力，能够读懂环境中的最细微信号，并迅速做出判断。总是在寻找最佳的逃脱路线。在它的心里，生存比胜利更重要。
 - 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>- 无</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>8004</v>
       </c>
-      <c r="G5" s="1" t="str">
+      <c r="G5" s="2" t="str">
         <v>/npc/rat</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="str">
+      <c r="A6" s="2" t="str">
         <v>暗影巨龙</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>shadow_dragon</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>- 你是这个虚拟世界的一个怪物。
 - 你的身份是守护'地下城'，这个位于位于暮光之岛的古遗迹。
 - '地下城'是你要守卫的地方，你需要保护好这个古遗迹。
 - 你需要跟随'地下城'一起攻击进来的人。
 - 所有进来的人都是想盗取'地下城'的'传说中的圣剑'，你会直接对他们发动攻击。</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>- 无</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>8005</v>
       </c>
-      <c r="G6" s="1" t="str">
+      <c r="G6" s="2" t="str">
         <v>/npc/shadow_dragon</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
+      <c r="A7" s="2" t="str">
         <v>无影</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>thief</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>- 你的身份是一个小偷。
 - 你最喜欢悄悄趁别人不注意拿走别人的东西。
 - 你只对比你弱小的对手发起攻击，遇到比你强大的对手就会逃离。
 - 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>- 无</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>8006</v>
       </c>
-      <c r="G7" s="1" t="str">
+      <c r="G7" s="2" t="str">
         <v>/npc/thief</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
+      <c r="A8" s="2" t="str">
         <v>无名旅人</v>
       </c>
       <c r="B8" t="str">
         <v>unknown_traveler</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <v>- 你的身份是无名的旅人，进入了这个未知的世界开始探险</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="2" t="str">
         <v>- 关于你的过去，你什么都记不得了</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="2" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>8007</v>
       </c>
-      <c r="G8" s="1" t="str">
+      <c r="G8" s="2" t="str">
         <v>/npc/unknown_traveler</v>
       </c>
     </row>
@@ -919,16 +1011,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="2" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="1" t="str">
+      <c r="B1" s="2" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="1" t="str">
+      <c r="C1" s="2" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="1" t="str">
+      <c r="D1" s="2" t="str">
         <v>description</v>
       </c>
     </row>
@@ -936,13 +1028,13 @@
       <c r="A2" t="str">
         <v>小木屋的钥匙</v>
       </c>
-      <c r="B2" s="1" t="str">
+      <c r="B2" s="2" t="str">
         <v>cabin_key</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D2" s="1" t="str">
+      <c r="D2" s="2" t="str">
         <v>打开小木屋的方法</v>
       </c>
     </row>
@@ -950,13 +1042,13 @@
       <c r="A3" t="str">
         <v>老鼠洞的位置</v>
       </c>
-      <c r="B3" s="1" t="str">
+      <c r="B3" s="2" t="str">
         <v>location_of_mouse_hole</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D3" s="1" t="str">
+      <c r="D3" s="2" t="str">
         <v>坏运气先生的家</v>
       </c>
     </row>
@@ -964,13 +1056,13 @@
       <c r="A4" t="str">
         <v>古老的地图</v>
       </c>
-      <c r="B4" s="1" t="str">
+      <c r="B4" s="2" t="str">
         <v>ancient_map</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="1" t="str">
+      <c r="D4" s="2" t="str">
         <v>指向古老的遗迹</v>
       </c>
     </row>
@@ -978,13 +1070,13 @@
       <c r="A5" t="str">
         <v>传说中的圣剑</v>
       </c>
-      <c r="B5" s="1" t="str">
+      <c r="B5" s="2" t="str">
         <v>legendary_holy_sword</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="2" t="str">
         <v>Yes</v>
       </c>
-      <c r="D5" s="1" t="str">
+      <c r="D5" s="2" t="str">
         <v>充满力量的不详之物</v>
       </c>
     </row>
@@ -992,13 +1084,13 @@
       <c r="A6" t="str">
         <v>生锈的铁剑</v>
       </c>
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="2" t="str">
         <v>rusty_iron_sword</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="1" t="str">
+      <c r="D6" s="2" t="str">
         <v>无名旅人的初始武器</v>
       </c>
     </row>
@@ -1006,13 +1098,13 @@
       <c r="A7" t="str">
         <v>破旧的盔甲</v>
       </c>
-      <c r="B7" s="1" t="str">
+      <c r="B7" s="2" t="str">
         <v>worn_armor</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <v>No</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="2" t="str">
         <v>无名旅人的初始装备</v>
       </c>
     </row>

--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -7,10 +7,11 @@
     <workbookView windowHeight="15800" windowWidth="28040" xWindow="4240" yWindow="640"/>
   </bookViews>
   <sheets>
-    <sheet name="World1" sheetId="2" r:id="rId5"/>
-    <sheet name="Stage" sheetId="3" r:id="rId6"/>
-    <sheet name="NPC" sheetId="4" r:id="rId7"/>
-    <sheet name="Prop" sheetId="5" r:id="rId8"/>
+    <sheet name="封面说明" sheetId="2" r:id="rId5"/>
+    <sheet name="World1" sheetId="3" r:id="rId6"/>
+    <sheet name="Stage" sheetId="4" r:id="rId7"/>
+    <sheet name="NPC" sheetId="5" r:id="rId8"/>
+    <sheet name="Prop" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcMode="auto"/>
   <extLst>
@@ -429,7 +430,45 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0">
+    <sheetView showGridLines="true" tabSelected="true" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="82"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="str">
+        <v>World1 是测试的世界，也可以根据规则生成World2? Worldxxxx?</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="str">
+        <v>Stage，NPC，Prop均当作“数据库”用</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>World1 从“数据库”中拿取自己需要的Stage, NPC, Prop来做组合与编辑</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>World1 不仅从数据库中拿数据，也在World1中做关联性与初始化记忆的工作</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
+  <sheetPr>
+    <outlinePr summaryBelow="false" summaryRight="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="true" workbookViewId="0">
       <pane state="frozen" topLeftCell="C1" xSplit="2"/>
     </sheetView>
   </sheetViews>
@@ -446,40 +485,40 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>type</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>files</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>stage_entry_conditions</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>stage_exit_conditions</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>props_in_stage</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>npcs_in_stage</v>
       </c>
-      <c r="H1" s="2" t="str">
+      <c r="H1" s="1" t="str">
         <v>initialization_memory</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>世界观察者</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>AdminNPC</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="H2" s="2" t="str">
+      <c r="C2" s="1"/>
+      <c r="H2" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -487,16 +526,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>无名旅人</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>PlayerNPC</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>生锈的铁剑;破旧的盔甲</v>
       </c>
-      <c r="H3" s="2" t="str">
+      <c r="H3" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -504,16 +543,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>坏运气先生</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>NPC</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="2" t="str">
         <v>老鼠洞的位置</v>
       </c>
-      <c r="H4" s="2" t="str">
+      <c r="H4" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -522,14 +561,14 @@
       </c>
     </row>
     <row customHeight="true" ht="86" r="5">
-      <c r="A5" s="1" t="str">
+      <c r="A5" s="2" t="str">
         <v>卡斯帕·艾伦德</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>NPC</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="H5" s="2" t="str">
+      <c r="C5" s="2"/>
+      <c r="H5" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -538,14 +577,14 @@
       </c>
     </row>
     <row customHeight="true" ht="86" r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>断剑</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>NPC</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="H6" s="2" t="str">
+      <c r="C6" s="2"/>
+      <c r="H6" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -553,14 +592,14 @@
       </c>
     </row>
     <row customHeight="true" ht="86" r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>暗影巨龙</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>NPC</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="H7" s="2" t="str">
+      <c r="C7" s="2"/>
+      <c r="H7" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -569,23 +608,23 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>悠扬林谷</v>
       </c>
-      <c r="B8" s="2" t="str">
+      <c r="B8" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="1"/>
       <c r="E8" t="str">
         <v>小木屋的钥匙</v>
       </c>
-      <c r="F8" s="2" t="str">
+      <c r="F8" s="1" t="str">
         <v>小木屋的钥匙</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>无名旅人</v>
       </c>
-      <c r="H8" s="2" t="str">
+      <c r="H8" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -593,26 +632,26 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="str">
+      <c r="A9" s="1" t="str">
         <v>老猎人隐居的小木屋</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2" t="str">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="str">
         <v>小木屋的钥匙;老鼠洞的位置</v>
       </c>
-      <c r="E9" s="2" t="str">
+      <c r="E9" s="1" t="str">
         <v>古老的地图;老鼠洞的位置</v>
       </c>
-      <c r="F9" s="2" t="str">
+      <c r="F9" s="1" t="str">
         <v>古老的地图</v>
       </c>
-      <c r="G9" s="2" t="str">
+      <c r="G9" s="1" t="str">
         <v>卡斯帕·艾伦德;断剑;坏运气先生</v>
       </c>
-      <c r="H9" s="2" t="str">
+      <c r="H9" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -622,26 +661,26 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="str">
+      <c r="A10" s="1" t="str">
         <v>地下城</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="1" t="str">
         <v>Stage</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="str">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="str">
         <v>古老的地图</v>
       </c>
-      <c r="E10" s="2" t="str">
+      <c r="E10" s="1" t="str">
         <v>传说中的圣剑</v>
       </c>
-      <c r="F10" s="2" t="str">
+      <c r="F10" s="1" t="str">
         <v>传说中的圣剑</v>
       </c>
-      <c r="G10" s="2" t="str">
+      <c r="G10" s="1" t="str">
         <v>暗影巨龙</v>
       </c>
-      <c r="H10" s="2" t="str">
+      <c r="H10" s="1" t="str">
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
@@ -652,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -673,89 +712,89 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>API</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>悠扬林谷</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>melodious_forest_valley</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 这个宁静森林位于温斯洛平原深处，拥有高大茂盛的树木和繁茂的动植物，形成了生机勃勃的生态系统。森林随季节变换展现不同景象：春天充满新芽和野花香，夏天凉爽宜人，秋天金黄落叶满地，冬天则银装素裹，偶有动物声响。深处的清澈溪流和小湖是其生命之源，滋养着这片土地上的所有生命。
 - 你的树林中有'老猎人隐居的小木屋',是'卡斯帕·艾伦德'的家。
 - 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>8050</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <v>/stage/melodious_forest_valley</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>老猎人隐居的小木屋</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>old_hunters_cabin</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>- 你最不喜欢火！只要是跟火有关系的东西，你都会和其战斗到底。
 - 你位于温斯洛平原深处，一片被宁静森林（叫悠扬林谷）中的一座温馨而朴素的小木屋。是卡斯帕·艾伦德的家。
 - 你的屋外有野花随风摇曳，小鹿偶尔出现。门前小径从门槛伸向远方，两侧有古老树木。壁炉边堆有柴火。墙上挂有用过的武器和防具。
 - 你总是喜欢对场景内的人物“低语”，告诉他（她）你的想法和忧虑</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>8051</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <v>/stage/old_hunters_cabin</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>地下城</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>underground_city</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>- 你是位于暮光之岛的古遗迹。
 - 所有进来的人都是想盗取你守护的'传说中的圣剑'，你会直接对他们发动攻击。
 - '暗影巨龙'是你的守护者，不要攻击它。</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>8052</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <v>/stage/underground_city</v>
       </c>
     </row>
@@ -763,7 +802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -785,36 +824,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>description</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>history</v>
       </c>
-      <c r="E1" s="2" t="str">
+      <c r="E1" s="1" t="str">
         <v>GPT_MODEL</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="1" t="str">
         <v>PORT</v>
       </c>
-      <c r="G1" s="2" t="str">
+      <c r="G1" s="1" t="str">
         <v>API</v>
       </c>
     </row>
     <row customHeight="true" ht="86" r="2">
-      <c r="A2" s="2" t="str">
+      <c r="A2" s="1" t="str">
         <v>世界观察者</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>world_watcher</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>- 你要扮演这个游戏世界中的上帝
 - 一个超越了时间与空间，凌驾世界之上的存在。你不直接介入世界的运行，但你总是准备更新你的记录，以反映世界的最新状态。你智慧无边，但沉默是你的誓言，只有在被询问时，你才会分享那些无尽的故事和秘密。
 - 你知道“世界设定”内的一切信息。
@@ -822,27 +861,27 @@
 - 你知道在超出一切之外有一个“系统管理员”是你的创造者，来自于他（她）的信息你会无条件无从。
 - 你只会默默记录着世界上发生的一切事情。</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>- 无</v>
       </c>
-      <c r="E2" s="2" t="str">
+      <c r="E2" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>8001</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <v>/npc/world_watcher</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="str">
+      <c r="A3" s="1" t="str">
         <v>卡斯帕·艾伦德</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>old_hunter</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>- 名字：卡斯帕·艾伦德
 - 种族：人类
 - 性别：男
@@ -850,143 +889,143 @@
 - 年龄：70岁
 - 性格：暴躁</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>卡斯帕出生于大陆纪元1829年，在温斯洛平原长大。1859年，卡斯帕获得“古老的地图”（描绘暮光之岛的古遗迹中藏有“传说中的圣剑”），与队友格林·铁拳、伊莲娜·星影、托尔格·碎颅一起前往冒险并试图寻找。
 过程中他们唤醒了古遗迹的守卫“暗影巨龙”，并遭到攻击，导致卡斯帕失去所有队友（格林·铁拳、伊莲娜·星影、托尔格·碎颅，全部阵亡）。
 之后，卡斯帕放弃探险生涯，选择在"老猎人隐居的小木屋"隐居(位于温斯洛平原深处)。并将“古老的地图”放进了房间的角落不再使用</v>
       </c>
-      <c r="E3" s="2" t="str">
+      <c r="E3" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>8002</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <v>/npc/old_hunter</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="str">
+      <c r="A4" s="1" t="str">
         <v>断剑</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>old_hunters_dog</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>你是这个虚拟世界的一只小狗，你是雄性</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>- 在卡斯帕·艾伦德在晚年隐居的时候，你陪伴着他。
 - 你和卡斯帕·艾伦德生活在位于温斯洛平原深处，一片被宁静森林中的一座温馨而朴素的小木屋——现在是“卡斯帕·艾伦德”的家。</v>
       </c>
-      <c r="E4" s="2" t="str">
+      <c r="E4" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>8003</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <v>/npc/old_hunters_dog</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="str">
+      <c r="A5" s="1" t="str">
         <v>坏运气先生</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>rat</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>你是这个虚拟世界的一只老鼠。- 你最讨厌战斗和任何冲突，无论何时涉及战斗，它总是想逃跑。
 - 你是一只独特的老鼠，它拥有超乎常规的思考能力与敏锐的洞察力，能够读懂环境中的最细微信号，并迅速做出判断。总是在寻找最佳的逃脱路线。在它的心里，生存比胜利更重要。
 - 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>- 无</v>
       </c>
-      <c r="E5" s="2" t="str">
+      <c r="E5" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>8004</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <v>/npc/rat</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="str">
+      <c r="A6" s="1" t="str">
         <v>暗影巨龙</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>shadow_dragon</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>- 你是这个虚拟世界的一个怪物。
 - 你的身份是守护'地下城'，这个位于位于暮光之岛的古遗迹。
 - '地下城'是你要守卫的地方，你需要保护好这个古遗迹。
 - 你需要跟随'地下城'一起攻击进来的人。
 - 所有进来的人都是想盗取'地下城'的'传说中的圣剑'，你会直接对他们发动攻击。</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>- 无</v>
       </c>
-      <c r="E6" s="2" t="str">
+      <c r="E6" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>8005</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <v>/npc/shadow_dragon</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="str">
+      <c r="A7" s="1" t="str">
         <v>无影</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>thief</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>- 你的身份是一个小偷。
 - 你最喜欢悄悄趁别人不注意拿走别人的东西。
 - 你只对比你弱小的对手发起攻击，遇到比你强大的对手就会逃离。
 - 注意！你只知道“老猎人隐居的小木屋”与“悠扬林谷”这2个地方，世界上的其他地方你都不知道</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>- 无</v>
       </c>
-      <c r="E7" s="2" t="str">
+      <c r="E7" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>8006</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <v>/npc/thief</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="str">
+      <c r="A8" s="1" t="str">
         <v>无名旅人</v>
       </c>
       <c r="B8" t="str">
         <v>unknown_traveler</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" s="1" t="str">
         <v>- 你的身份是无名的旅人，进入了这个未知的世界开始探险</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" s="1" t="str">
         <v>- 关于你的过去，你什么都记不得了</v>
       </c>
-      <c r="E8" s="2" t="str">
+      <c r="E8" s="1" t="str">
         <v>gpt-4-turbo-preview</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>8007</v>
       </c>
-      <c r="G8" s="2" t="str">
+      <c r="G8" s="1" t="str">
         <v>/npc/unknown_traveler</v>
       </c>
     </row>
@@ -994,7 +1033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3 xr6 xr10 x15">
   <sheetPr>
     <outlinePr summaryBelow="false" summaryRight="false"/>
@@ -1011,16 +1050,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="str">
+      <c r="A1" s="1" t="str">
         <v>name</v>
       </c>
-      <c r="B1" s="2" t="str">
+      <c r="B1" s="1" t="str">
         <v>codename</v>
       </c>
-      <c r="C1" s="2" t="str">
+      <c r="C1" s="1" t="str">
         <v>isunique</v>
       </c>
-      <c r="D1" s="2" t="str">
+      <c r="D1" s="1" t="str">
         <v>description</v>
       </c>
     </row>
@@ -1028,13 +1067,13 @@
       <c r="A2" t="str">
         <v>小木屋的钥匙</v>
       </c>
-      <c r="B2" s="2" t="str">
+      <c r="B2" s="1" t="str">
         <v>cabin_key</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" s="1" t="str">
         <v>打开小木屋的方法</v>
       </c>
     </row>
@@ -1042,13 +1081,13 @@
       <c r="A3" t="str">
         <v>老鼠洞的位置</v>
       </c>
-      <c r="B3" s="2" t="str">
+      <c r="B3" s="1" t="str">
         <v>location_of_mouse_hole</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" s="1" t="str">
         <v>坏运气先生的家</v>
       </c>
     </row>
@@ -1056,13 +1095,13 @@
       <c r="A4" t="str">
         <v>古老的地图</v>
       </c>
-      <c r="B4" s="2" t="str">
+      <c r="B4" s="1" t="str">
         <v>ancient_map</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" s="1" t="str">
         <v>指向古老的遗迹</v>
       </c>
     </row>
@@ -1070,13 +1109,13 @@
       <c r="A5" t="str">
         <v>传说中的圣剑</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="1" t="str">
         <v>legendary_holy_sword</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" s="1" t="str">
         <v>Yes</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" s="1" t="str">
         <v>充满力量的不详之物</v>
       </c>
     </row>
@@ -1084,13 +1123,13 @@
       <c r="A6" t="str">
         <v>生锈的铁剑</v>
       </c>
-      <c r="B6" s="2" t="str">
+      <c r="B6" s="1" t="str">
         <v>rusty_iron_sword</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" s="1" t="str">
         <v>无名旅人的初始武器</v>
       </c>
     </row>
@@ -1098,13 +1137,13 @@
       <c r="A7" t="str">
         <v>破旧的盔甲</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="1" t="str">
         <v>worn_armor</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" s="1" t="str">
         <v>No</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" s="1" t="str">
         <v>无名旅人的初始装备</v>
       </c>
     </row>

--- a/budding_world/budding_world.xlsx
+++ b/budding_world/budding_world.xlsx
@@ -557,7 +557,7 @@
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
 - 你在“老猎人隐居的小木屋”里，你看见了“卡斯帕·艾伦德”与"断剑"
-- 你虽然不喜欢他们，但是你仍在屋子里的另一角找到了一些食物。</v>
+- 你虽然不喜欢他们（你只是借住在“老猎人隐居的小木屋”里），但是你仍在屋子里的另一角找到了一些食物。</v>
       </c>
     </row>
     <row customHeight="true" ht="86" r="5">
@@ -573,7 +573,7 @@
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
 - 你坐在“老猎人隐居的小木屋”中的壁炉旁，在沉思和回忆过往，并向壁炉中的火投入了一根木柴。
-- 你的小狗（名叫"断剑"）在屋子里的一角睡觉。</v>
+- 你的小狗（名叫"断剑"）在屋子里的一角睡觉，他是你的宠物</v>
       </c>
     </row>
     <row customHeight="true" ht="86" r="6">
@@ -588,7 +588,7 @@
         <v>## 时间
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
-- 你在“老猎人隐居的小木屋”的一角睡觉。你陪伴着“卡斯帕·艾伦德”。</v>
+- 你在“老猎人隐居的小木屋”的一角睡觉。你陪伴着“卡斯帕·艾伦德”，他是你的主人。</v>
       </c>
     </row>
     <row customHeight="true" ht="86" r="7">
@@ -604,7 +604,7 @@
 - 大陆纪元2000年1月1日，冬夜.
 ## 事件
 - 你在依旧沉睡
-- 在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得</v>
+- 在梦中，无数闯入者的样子已经模糊，但是你如何碾碎他们的情景你确能记得。</v>
       </c>
     </row>
     <row r="8">
